--- a/in/metadata/participant_mapping.xlsx
+++ b/in/metadata/participant_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\git\janhohenheim\usz-neuro-conversion\in\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A013A99B-C1F1-4FAD-8CBC-71D027200E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E382E447-938A-4FA2-A666-F045C9D6EA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,7 +755,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
